--- a/src/test/java/com/idzlink/testData/LoginData.xlsx
+++ b/src/test/java/com/idzlink/testData/LoginData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EAA981-27A8-445C-83B2-8B93FEDE9E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="17940" windowHeight="8376"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -24,12 +25,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr530361</t>
-  </si>
-  <si>
-    <t>EtYqUtY</t>
-  </si>
-  <si>
     <t>fiestesting1@gmail.com</t>
   </si>
   <si>
@@ -45,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +114,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +166,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -197,6 +200,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,9 +235,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,20 +411,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -427,34 +432,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -462,24 +459,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
